--- a/프로그램 카테고리 정리_250724 .xlsx
+++ b/프로그램 카테고리 정리_250724 .xlsx
@@ -2,20 +2,23 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27932"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <workbookPr codeName="현재_통합_문서" defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\gtis 연결자료\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="T:\Gits\Land_design_tool\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04BBD3EC-6B49-432B-A048-F6CF2D154D5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BED8E6C3-A2AC-47CF-AE85-B9A028585927}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28800" yWindow="0" windowWidth="29040" windowHeight="15480" xr2:uid="{7812F8F4-208D-47C4-ABDB-79D008E3D31A}"/>
+    <workbookView xWindow="28800" yWindow="0" windowWidth="28770" windowHeight="15450" xr2:uid="{7812F8F4-208D-47C4-ABDB-79D008E3D31A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="자동화 업무 분류 코드" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$C$1:$S$29</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -32,12 +35,15 @@
         <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
+    <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
+      <xlwcv:version setVersion="1"/>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="185">
   <si>
     <t xml:space="preserve">우수계획평면도 </t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -148,9 +154,6 @@
   </si>
   <si>
     <t>Epanet 수리해석, 상수관</t>
-  </si>
-  <si>
-    <t>PV</t>
   </si>
   <si>
     <t>도로 포장, 단면, 구조</t>
@@ -548,10 +551,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>_manhole_inout_counter</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>12</t>
   </si>
   <si>
@@ -588,6 +587,154 @@
   </si>
   <si>
     <t>맨홀 입출입수 집계</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>리습명령어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>p_flowdir</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>p_pipeauto</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>p_pipearrow</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>p_mhinsert</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>p_mhlabel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>p_profedit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>p_profsort</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>p_boxauto</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>p_keymapauto</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수정필요</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>p_stinlet</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>토공</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>횡단보도 점자블록 자동작성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>횡단보도 유도블록 자동작성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>횡단보도 볼라드 자동작성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EW</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RW</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>백현준</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>김재구</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>최건호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CDS블록계획시 미성토 블록 라인자동 생성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Unfilled_Grade_Line</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E_unf3d</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>점자블록 자동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유도블록 자동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>볼라드 자동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R_Tactileblock</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R_Guidingblock</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R_Bollard</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>manhole_inout_counter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Auto_Tactile_block</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Auto_Guiding_block</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Auto_Bollard_block</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>03</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>04</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>포장 수량 조서 작성 자동</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -652,7 +799,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -662,6 +809,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -741,7 +900,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -772,15 +931,33 @@
     <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -795,6 +972,39 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1130,1044 +1340,1365 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85B6F371-2927-4BF2-8DCF-449FDE8779F3}">
-  <dimension ref="A1:O24"/>
+  <sheetPr codeName="Sheet1"/>
+  <dimension ref="A1:S29"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="B1" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.5" style="1" customWidth="1"/>
-    <col min="2" max="2" width="4.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.5" style="1" customWidth="1"/>
     <col min="3" max="3" width="7.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="33.625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="36.5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="24.375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.25" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="32.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="33.625" style="28" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="36.5" style="28" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8" style="28" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11" style="28" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="24.375" style="28" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.25" style="28" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="32.5" style="28" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="32.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="M1" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A2" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>86</v>
+    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="O1" s="28" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="B2" s="7" t="s">
+        <v>82</v>
       </c>
       <c r="C2" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="E2" s="8" t="s">
         <v>66</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="E2" s="8" t="s">
-        <v>68</v>
       </c>
       <c r="F2" s="8" t="s">
         <v>67</v>
       </c>
       <c r="G2" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="I2" s="29" t="s">
         <v>68</v>
       </c>
-      <c r="H2" s="8" t="s">
+      <c r="J2" s="29" t="s">
+        <v>70</v>
+      </c>
+      <c r="K2" s="29" t="s">
         <v>69</v>
       </c>
-      <c r="I2" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="J2" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="K2" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="L2" s="8" t="s">
-        <v>141</v>
-      </c>
-      <c r="M2" s="8" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A3" s="13" t="s">
-        <v>87</v>
-      </c>
-      <c r="B3" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="5" t="str">
+      <c r="L2" s="29" t="s">
+        <v>148</v>
+      </c>
+      <c r="M2" s="29" t="s">
+        <v>92</v>
+      </c>
+      <c r="N2" s="29" t="s">
+        <v>139</v>
+      </c>
+      <c r="O2" s="29" t="s">
+        <v>90</v>
+      </c>
+      <c r="P2" s="12"/>
+    </row>
+    <row r="3" spans="1:19" s="26" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="26" t="s">
+        <v>166</v>
+      </c>
+      <c r="B3" s="34"/>
+      <c r="C3" s="24" t="s">
+        <v>160</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="E3" s="5" t="str">
         <f>VLOOKUP(C3,'자동화 업무 분류 코드'!$A$2:$B$8,2,FALSE)</f>
-        <v>PW</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="F3" s="5" t="str">
-        <f>VLOOKUP(E3,'자동화 업무 분류 코드'!$A$15:$B$23,2,FALSE)</f>
-        <v>T</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="H3" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="I3" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="J3" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="K3" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="L3" s="6" t="str">
-        <f>D3</f>
-        <v>PW</v>
-      </c>
-      <c r="M3" s="10" t="str">
-        <f t="shared" ref="M3:M8" si="0">CONCATENATE(B3,$M$1,F3,$M$1,K3)</f>
-        <v>01_T_cad_template</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A4" s="14"/>
-      <c r="B4" s="9" t="s">
-        <v>101</v>
+        <v>TG</v>
+      </c>
+      <c r="F3" s="24" t="s">
+        <v>61</v>
+      </c>
+      <c r="G3" s="5" t="str">
+        <f>VLOOKUP(F3,'자동화 업무 분류 코드'!$A$15:$B$23,2,FALSE)</f>
+        <v>P</v>
+      </c>
+      <c r="H3" s="24"/>
+      <c r="I3" s="27" t="s">
+        <v>169</v>
+      </c>
+      <c r="J3" s="27"/>
+      <c r="K3" s="30" t="s">
+        <v>81</v>
+      </c>
+      <c r="L3" s="27" t="s">
+        <v>171</v>
+      </c>
+      <c r="M3" s="27" t="s">
+        <v>170</v>
+      </c>
+      <c r="N3" s="27" t="s">
+        <v>164</v>
+      </c>
+      <c r="O3" s="32" t="str">
+        <f>CONCATENATE(D3,$O$1,G3,$O$1,M3)</f>
+        <v>01_P_Unfilled_Grade_Line</v>
+      </c>
+      <c r="P3" s="25"/>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="B4" s="19" t="s">
+        <v>86</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="5" t="str">
+      <c r="D4" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="E4" s="5" t="str">
         <f>VLOOKUP(C4,'자동화 업무 분류 코드'!$A$2:$B$8,2,FALSE)</f>
         <v>PW</v>
       </c>
-      <c r="E4" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="F4" s="5" t="str">
-        <f>VLOOKUP(E4,'자동화 업무 분류 코드'!$A$15:$B$23,2,FALSE)</f>
-        <v>C</v>
-      </c>
-      <c r="G4" s="5" t="s">
+      <c r="F4" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="G4" s="5" t="str">
+        <f>VLOOKUP(F4,'자동화 업무 분류 코드'!$A$15:$B$23,2,FALSE)</f>
+        <v>T</v>
+      </c>
+      <c r="H4" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="H4" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="I4" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="J4" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="K4" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="L4" s="6" t="str">
-        <f t="shared" ref="L4:L24" si="1">D4</f>
+      <c r="I4" s="30" t="s">
+        <v>5</v>
+      </c>
+      <c r="J4" s="30" t="s">
+        <v>89</v>
+      </c>
+      <c r="K4" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="L4" s="30"/>
+      <c r="M4" s="30" t="s">
+        <v>93</v>
+      </c>
+      <c r="N4" s="30" t="str">
+        <f>E4</f>
         <v>PW</v>
       </c>
-      <c r="M4" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v>02_C_import_FH_from_CDS</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A5" s="14"/>
-      <c r="B5" s="9" t="s">
-        <v>102</v>
-      </c>
+      <c r="O4" s="32" t="str">
+        <f>CONCATENATE(D4,$O$1,G4,$O$1,M4)</f>
+        <v>01_T_cad_template</v>
+      </c>
+      <c r="P4" s="13"/>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="B5" s="20"/>
       <c r="C5" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="5" t="str">
+      <c r="D5" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="E5" s="5" t="str">
         <f>VLOOKUP(C5,'자동화 업무 분류 코드'!$A$2:$B$8,2,FALSE)</f>
         <v>PW</v>
       </c>
-      <c r="E5" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="F5" s="5" t="str">
-        <f>VLOOKUP(E5,'자동화 업무 분류 코드'!$A$15:$B$23,2,FALSE)</f>
+      <c r="F5" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="G5" s="5" t="str">
+        <f>VLOOKUP(F5,'자동화 업무 분류 코드'!$A$15:$B$23,2,FALSE)</f>
         <v>C</v>
       </c>
-      <c r="G5" s="5" t="s">
+      <c r="H5" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="H5" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="I5" s="6"/>
-      <c r="J5" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="K5" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="L5" s="6" t="str">
-        <f t="shared" si="1"/>
+      <c r="I5" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="J5" s="30" t="s">
+        <v>71</v>
+      </c>
+      <c r="K5" s="30" t="s">
+        <v>81</v>
+      </c>
+      <c r="L5" s="30"/>
+      <c r="M5" s="30" t="s">
+        <v>94</v>
+      </c>
+      <c r="N5" s="30" t="str">
+        <f t="shared" ref="N5:N29" si="0">E5</f>
         <v>PW</v>
       </c>
-      <c r="M5" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v>03_C_cad_to_inp</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A6" s="14"/>
-      <c r="B6" s="9" t="s">
-        <v>103</v>
-      </c>
+      <c r="O5" s="32" t="str">
+        <f>CONCATENATE(D5,$O$1,G5,$O$1,M5)</f>
+        <v>02_C_import_FH_from_CDS</v>
+      </c>
+      <c r="P5" s="13"/>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="B6" s="20"/>
       <c r="C6" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="5" t="str">
+      <c r="D6" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="E6" s="5" t="str">
         <f>VLOOKUP(C6,'자동화 업무 분류 코드'!$A$2:$B$8,2,FALSE)</f>
         <v>PW</v>
       </c>
-      <c r="E6" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="F6" s="5" t="str">
-        <f>VLOOKUP(E6,'자동화 업무 분류 코드'!$A$15:$B$23,2,FALSE)</f>
-        <v>P</v>
-      </c>
-      <c r="G6" s="5" t="s">
+      <c r="F6" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="G6" s="5" t="str">
+        <f>VLOOKUP(F6,'자동화 업무 분류 코드'!$A$15:$B$23,2,FALSE)</f>
+        <v>C</v>
+      </c>
+      <c r="H6" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="H6" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="I6" s="6"/>
-      <c r="J6" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="K6" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="L6" s="6" t="str">
-        <f t="shared" si="1"/>
+      <c r="I6" s="30" t="s">
+        <v>7</v>
+      </c>
+      <c r="J6" s="30"/>
+      <c r="K6" s="30" t="s">
+        <v>81</v>
+      </c>
+      <c r="L6" s="30"/>
+      <c r="M6" s="30" t="s">
+        <v>95</v>
+      </c>
+      <c r="N6" s="30" t="str">
+        <f t="shared" si="0"/>
         <v>PW</v>
       </c>
-      <c r="M6" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v>04_P_inp_to_cad</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A7" s="14"/>
-      <c r="B7" s="9" t="s">
-        <v>104</v>
-      </c>
+      <c r="O6" s="32" t="str">
+        <f>CONCATENATE(D6,$O$1,G6,$O$1,M6)</f>
+        <v>03_C_cad_to_inp</v>
+      </c>
+      <c r="P6" s="13"/>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="B7" s="20"/>
       <c r="C7" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D7" s="5" t="str">
+      <c r="D7" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="E7" s="5" t="str">
         <f>VLOOKUP(C7,'자동화 업무 분류 코드'!$A$2:$B$8,2,FALSE)</f>
         <v>PW</v>
       </c>
-      <c r="E7" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="F7" s="5" t="str">
-        <f>VLOOKUP(E7,'자동화 업무 분류 코드'!$A$15:$B$23,2,FALSE)</f>
+      <c r="F7" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="G7" s="5" t="str">
+        <f>VLOOKUP(F7,'자동화 업무 분류 코드'!$A$15:$B$23,2,FALSE)</f>
         <v>P</v>
       </c>
-      <c r="G7" s="5" t="s">
+      <c r="H7" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="H7" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="I7" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="J7" s="6"/>
-      <c r="K7" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="L7" s="6" t="str">
-        <f t="shared" si="1"/>
+      <c r="I7" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="J7" s="30"/>
+      <c r="K7" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="L7" s="30"/>
+      <c r="M7" s="30" t="s">
+        <v>96</v>
+      </c>
+      <c r="N7" s="30" t="str">
+        <f t="shared" si="0"/>
         <v>PW</v>
       </c>
-      <c r="M7" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v>05_P_epanet_results_to_cad</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A8" s="14"/>
-      <c r="B8" s="9" t="s">
-        <v>105</v>
-      </c>
+      <c r="O7" s="32" t="str">
+        <f>CONCATENATE(D7,$O$1,G7,$O$1,M7)</f>
+        <v>04_P_inp_to_cad</v>
+      </c>
+      <c r="P7" s="13"/>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="B8" s="20"/>
       <c r="C8" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="5" t="str">
+      <c r="D8" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="E8" s="5" t="str">
         <f>VLOOKUP(C8,'자동화 업무 분류 코드'!$A$2:$B$8,2,FALSE)</f>
         <v>PW</v>
       </c>
-      <c r="E8" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="F8" s="5" t="str">
-        <f>VLOOKUP(E8,'자동화 업무 분류 코드'!$A$15:$B$23,2,FALSE)</f>
+      <c r="F8" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="G8" s="5" t="str">
+        <f>VLOOKUP(F8,'자동화 업무 분류 코드'!$A$15:$B$23,2,FALSE)</f>
         <v>P</v>
       </c>
-      <c r="G8" s="5" t="s">
+      <c r="H8" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="H8" s="6" t="s">
+      <c r="I8" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="J8" s="30" t="s">
+        <v>72</v>
+      </c>
+      <c r="K8" s="30"/>
+      <c r="L8" s="30"/>
+      <c r="M8" s="30" t="s">
+        <v>97</v>
+      </c>
+      <c r="N8" s="30" t="str">
+        <f t="shared" si="0"/>
+        <v>PW</v>
+      </c>
+      <c r="O8" s="32" t="str">
+        <f>CONCATENATE(D8,$O$1,G8,$O$1,M8)</f>
+        <v>05_P_epanet_results_to_cad</v>
+      </c>
+      <c r="P8" s="13"/>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="B9" s="20"/>
+      <c r="C9" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="E9" s="5" t="str">
+        <f>VLOOKUP(C9,'자동화 업무 분류 코드'!$A$2:$B$8,2,FALSE)</f>
+        <v>PW</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="G9" s="5" t="str">
+        <f>VLOOKUP(F9,'자동화 업무 분류 코드'!$A$15:$B$23,2,FALSE)</f>
+        <v>P</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="I9" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="I8" s="6"/>
-      <c r="J8" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="K8" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="L8" s="6" t="str">
-        <f t="shared" si="1"/>
+      <c r="J9" s="30"/>
+      <c r="K9" s="30" t="s">
+        <v>81</v>
+      </c>
+      <c r="L9" s="30"/>
+      <c r="M9" s="30" t="s">
+        <v>98</v>
+      </c>
+      <c r="N9" s="30" t="str">
+        <f t="shared" si="0"/>
         <v>PW</v>
       </c>
-      <c r="M8" s="10" t="str">
-        <f t="shared" si="0"/>
+      <c r="O9" s="32" t="str">
+        <f>CONCATENATE(D9,$O$1,G9,$O$1,M9)</f>
         <v>06_P_text_rotate180</v>
       </c>
-    </row>
-    <row r="9" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="15" t="s">
-        <v>88</v>
-      </c>
-      <c r="B9" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D9" s="5" t="str">
-        <f>VLOOKUP(C9,'자동화 업무 분류 코드'!$A$2:$B$8,2,FALSE)</f>
-        <v>SW</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="F9" s="5" t="str">
-        <f>VLOOKUP(E9,'자동화 업무 분류 코드'!$A$15:$B$23,2,FALSE)</f>
-        <v>P</v>
-      </c>
-      <c r="G9" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="H9" s="6" t="s">
-        <v>143</v>
-      </c>
-      <c r="I9" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="J9" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="K9" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="L9" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>SW</v>
-      </c>
-      <c r="M9" s="10" t="str">
-        <f>CONCATENATE(B9,$M$1,F9,$M$1,K9)</f>
-        <v>01_P_flow_direction_by_fh</v>
-      </c>
-      <c r="N9" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="O9" s="11" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A10" s="16"/>
-      <c r="B10" s="9" t="s">
-        <v>120</v>
+      <c r="P9" s="13"/>
+    </row>
+    <row r="10" spans="1:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="21" t="s">
+        <v>87</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D10" s="5" t="str">
+      <c r="D10" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="E10" s="5" t="str">
         <f>VLOOKUP(C10,'자동화 업무 분류 코드'!$A$2:$B$8,2,FALSE)</f>
         <v>SW</v>
       </c>
-      <c r="E10" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="F10" s="5" t="str">
-        <f>VLOOKUP(E10,'자동화 업무 분류 코드'!$A$15:$B$23,2,FALSE)</f>
+      <c r="F10" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="G10" s="5" t="str">
+        <f>VLOOKUP(F10,'자동화 업무 분류 코드'!$A$15:$B$23,2,FALSE)</f>
         <v>P</v>
       </c>
-      <c r="G10" s="5" t="s">
+      <c r="H10" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="H10" s="6" t="s">
-        <v>144</v>
-      </c>
-      <c r="I10" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="J10" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="K10" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="L10" s="6" t="str">
-        <f t="shared" si="1"/>
+      <c r="I10" s="30" t="s">
+        <v>141</v>
+      </c>
+      <c r="J10" s="30" t="s">
+        <v>71</v>
+      </c>
+      <c r="K10" s="30" t="s">
+        <v>81</v>
+      </c>
+      <c r="L10" s="30" t="s">
+        <v>149</v>
+      </c>
+      <c r="M10" s="30" t="s">
+        <v>105</v>
+      </c>
+      <c r="N10" s="30" t="str">
+        <f t="shared" si="0"/>
         <v>SW</v>
       </c>
-      <c r="M10" s="10" t="str">
-        <f t="shared" ref="M10:M24" si="2">CONCATENATE(B10,$M$1,F10,$M$1,K10)</f>
-        <v>02_P_pipe_id_length_auto_by_area</v>
-      </c>
-      <c r="O10" s="12" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A11" s="16"/>
-      <c r="B11" s="9" t="s">
-        <v>102</v>
-      </c>
+      <c r="O10" s="32" t="str">
+        <f>CONCATENATE(D10,$O$1,G10,$O$1,M10)</f>
+        <v>01_P_flow_direction_by_fh</v>
+      </c>
+      <c r="P10" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="Q10" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="R10" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="S10" s="10" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="B11" s="22"/>
       <c r="C11" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D11" s="5" t="str">
+      <c r="D11" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="E11" s="5" t="str">
         <f>VLOOKUP(C11,'자동화 업무 분류 코드'!$A$2:$B$8,2,FALSE)</f>
         <v>SW</v>
       </c>
-      <c r="E11" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="F11" s="5" t="str">
-        <f>VLOOKUP(E11,'자동화 업무 분류 코드'!$A$15:$B$23,2,FALSE)</f>
+      <c r="F11" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="G11" s="5" t="str">
+        <f>VLOOKUP(F11,'자동화 업무 분류 코드'!$A$15:$B$23,2,FALSE)</f>
         <v>P</v>
       </c>
-      <c r="G11" s="5" t="s">
+      <c r="H11" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="H11" s="6" t="s">
-        <v>145</v>
-      </c>
-      <c r="I11" s="6"/>
-      <c r="J11" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="K11" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="L11" s="6" t="str">
-        <f t="shared" si="1"/>
+      <c r="I11" s="30" t="s">
+        <v>142</v>
+      </c>
+      <c r="J11" s="30" t="s">
+        <v>75</v>
+      </c>
+      <c r="K11" s="30" t="s">
+        <v>81</v>
+      </c>
+      <c r="L11" s="30" t="s">
+        <v>150</v>
+      </c>
+      <c r="M11" s="30" t="s">
+        <v>107</v>
+      </c>
+      <c r="N11" s="30" t="str">
+        <f t="shared" si="0"/>
         <v>SW</v>
       </c>
-      <c r="M11" s="10" t="str">
-        <f t="shared" si="2"/>
-        <v>03_P_pipe_arrow_display</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A12" s="16"/>
-      <c r="B12" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="C12" s="5" t="s">
+      <c r="O11" s="32" t="str">
+        <f>CONCATENATE(D11,$O$1,G11,$O$1,M11)</f>
+        <v>02_P_pipe_id_length_auto_by_area</v>
+      </c>
+      <c r="P11" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="R11" s="11" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" s="17" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="22"/>
+      <c r="C12" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="D12" s="5" t="str">
+      <c r="D12" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="E12" s="15" t="str">
         <f>VLOOKUP(C12,'자동화 업무 분류 코드'!$A$2:$B$8,2,FALSE)</f>
         <v>SW</v>
       </c>
-      <c r="E12" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="F12" s="5" t="str">
-        <f>VLOOKUP(E12,'자동화 업무 분류 코드'!$A$15:$B$23,2,FALSE)</f>
+      <c r="F12" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="G12" s="15" t="str">
+        <f>VLOOKUP(F12,'자동화 업무 분류 코드'!$A$15:$B$23,2,FALSE)</f>
         <v>P</v>
       </c>
-      <c r="G12" s="5" t="s">
+      <c r="H12" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="H12" s="6" t="s">
-        <v>146</v>
-      </c>
-      <c r="I12" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="J12" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="K12" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="L12" s="6" t="str">
-        <f t="shared" si="1"/>
+      <c r="I12" s="31" t="s">
+        <v>143</v>
+      </c>
+      <c r="J12" s="31"/>
+      <c r="K12" s="31" t="s">
+        <v>81</v>
+      </c>
+      <c r="L12" s="31" t="s">
+        <v>151</v>
+      </c>
+      <c r="M12" s="31" t="s">
+        <v>109</v>
+      </c>
+      <c r="N12" s="31" t="str">
+        <f t="shared" si="0"/>
         <v>SW</v>
       </c>
-      <c r="M12" s="10" t="str">
-        <f t="shared" si="2"/>
-        <v>04_P_manhole_auto_insert</v>
-      </c>
-      <c r="N12" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="O12" s="11" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A13" s="16"/>
-      <c r="B13" s="9" t="s">
-        <v>104</v>
-      </c>
+      <c r="O12" s="33" t="str">
+        <f>CONCATENATE(D12,$O$1,G12,$O$1,M12)</f>
+        <v>03_P_pipe_arrow_display</v>
+      </c>
+      <c r="P12" s="16" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="B13" s="22"/>
       <c r="C13" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D13" s="5" t="str">
+      <c r="D13" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="E13" s="5" t="str">
         <f>VLOOKUP(C13,'자동화 업무 분류 코드'!$A$2:$B$8,2,FALSE)</f>
         <v>SW</v>
       </c>
-      <c r="E13" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="F13" s="5" t="str">
-        <f>VLOOKUP(E13,'자동화 업무 분류 코드'!$A$15:$B$23,2,FALSE)</f>
+      <c r="F13" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="G13" s="5" t="str">
+        <f>VLOOKUP(F13,'자동화 업무 분류 코드'!$A$15:$B$23,2,FALSE)</f>
         <v>P</v>
       </c>
-      <c r="G13" s="5" t="s">
+      <c r="H13" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="H13" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="I13" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="J13" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="K13" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="L13" s="6" t="str">
-        <f t="shared" si="1"/>
+      <c r="I13" s="30" t="s">
+        <v>144</v>
+      </c>
+      <c r="J13" s="30" t="s">
+        <v>73</v>
+      </c>
+      <c r="K13" s="30" t="s">
+        <v>81</v>
+      </c>
+      <c r="L13" s="30" t="s">
+        <v>152</v>
+      </c>
+      <c r="M13" s="30" t="s">
+        <v>106</v>
+      </c>
+      <c r="N13" s="30" t="str">
+        <f t="shared" si="0"/>
         <v>SW</v>
       </c>
-      <c r="M13" s="10" t="str">
-        <f>CONCATENATE(B13,$M$1,F13,$M$1,K13)</f>
-        <v>05_P_manhole_labeling</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A14" s="16"/>
-      <c r="B14" s="9" t="s">
-        <v>105</v>
-      </c>
-      <c r="C14" s="5" t="s">
+      <c r="O13" s="32" t="str">
+        <f>CONCATENATE(D13,$O$1,G13,$O$1,M13)</f>
+        <v>04_P_manhole_auto_insert</v>
+      </c>
+      <c r="P13" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="Q13" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="R13" s="10" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" s="17" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="22"/>
+      <c r="C14" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="D14" s="5" t="str">
+      <c r="D14" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="E14" s="15" t="str">
         <f>VLOOKUP(C14,'자동화 업무 분류 코드'!$A$2:$B$8,2,FALSE)</f>
         <v>SW</v>
       </c>
-      <c r="E14" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="F14" s="5" t="str">
-        <f>VLOOKUP(E14,'자동화 업무 분류 코드'!$A$15:$B$23,2,FALSE)</f>
+      <c r="F14" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="G14" s="15" t="str">
+        <f>VLOOKUP(F14,'자동화 업무 분류 코드'!$A$15:$B$23,2,FALSE)</f>
         <v>P</v>
       </c>
-      <c r="G14" s="5" t="s">
+      <c r="H14" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="H14" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="I14" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="J14" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="K14" s="6" t="s">
-        <v>132</v>
-      </c>
-      <c r="L14" s="6" t="str">
-        <f t="shared" si="1"/>
+      <c r="I14" s="31" t="s">
+        <v>1</v>
+      </c>
+      <c r="J14" s="31" t="s">
+        <v>74</v>
+      </c>
+      <c r="K14" s="31" t="s">
+        <v>81</v>
+      </c>
+      <c r="L14" s="31" t="s">
+        <v>153</v>
+      </c>
+      <c r="M14" s="31" t="s">
+        <v>108</v>
+      </c>
+      <c r="N14" s="31" t="str">
+        <f t="shared" si="0"/>
         <v>SW</v>
       </c>
-      <c r="M14" s="10" t="str">
-        <f t="shared" si="2"/>
-        <v>06_P_streetinlet_auto_create</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A15" s="16"/>
-      <c r="B15" s="9" t="s">
-        <v>121</v>
-      </c>
+      <c r="O14" s="33" t="str">
+        <f>CONCATENATE(D14,$O$1,G14,$O$1,M14)</f>
+        <v>05_P_manhole_labeling</v>
+      </c>
+      <c r="P14" s="16" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="B15" s="22"/>
       <c r="C15" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D15" s="5" t="str">
+      <c r="D15" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="E15" s="5" t="str">
         <f>VLOOKUP(C15,'자동화 업무 분류 코드'!$A$2:$B$8,2,FALSE)</f>
         <v>SW</v>
       </c>
-      <c r="E15" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="F15" s="5" t="str">
-        <f>VLOOKUP(E15,'자동화 업무 분류 코드'!$A$15:$B$23,2,FALSE)</f>
-        <v>J</v>
-      </c>
-      <c r="G15" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="H15" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="I15" s="6"/>
-      <c r="J15" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="K15" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="L15" s="6" t="str">
-        <f t="shared" si="1"/>
+      <c r="F15" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="G15" s="5" t="str">
+        <f>VLOOKUP(F15,'자동화 업무 분류 코드'!$A$15:$B$23,2,FALSE)</f>
+        <v>P</v>
+      </c>
+      <c r="H15" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="I15" s="30" t="s">
+        <v>130</v>
+      </c>
+      <c r="J15" s="30" t="s">
+        <v>130</v>
+      </c>
+      <c r="K15" s="30" t="s">
+        <v>81</v>
+      </c>
+      <c r="L15" s="30" t="s">
+        <v>159</v>
+      </c>
+      <c r="M15" s="30" t="s">
+        <v>131</v>
+      </c>
+      <c r="N15" s="30" t="str">
+        <f t="shared" si="0"/>
         <v>SW</v>
       </c>
-      <c r="M15" s="10" t="str">
-        <f t="shared" si="2"/>
-        <v>07_J_long_section_edit</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A16" s="16"/>
-      <c r="B16" s="9" t="s">
-        <v>122</v>
-      </c>
-      <c r="C16" s="5" t="s">
+      <c r="O15" s="32" t="str">
+        <f>CONCATENATE(D15,$O$1,G15,$O$1,M15)</f>
+        <v>06_P_streetinlet_auto_create</v>
+      </c>
+      <c r="P15" s="6"/>
+    </row>
+    <row r="16" spans="1:19" s="17" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="22"/>
+      <c r="C16" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="D16" s="5" t="str">
+      <c r="D16" s="14" t="s">
+        <v>120</v>
+      </c>
+      <c r="E16" s="15" t="str">
         <f>VLOOKUP(C16,'자동화 업무 분류 코드'!$A$2:$B$8,2,FALSE)</f>
         <v>SW</v>
       </c>
-      <c r="E16" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="F16" s="5" t="str">
-        <f>VLOOKUP(E16,'자동화 업무 분류 코드'!$A$15:$B$23,2,FALSE)</f>
+      <c r="F16" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="G16" s="15" t="str">
+        <f>VLOOKUP(F16,'자동화 업무 분류 코드'!$A$15:$B$23,2,FALSE)</f>
         <v>J</v>
       </c>
-      <c r="G16" s="5" t="s">
+      <c r="H16" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="H16" s="6" t="s">
-        <v>147</v>
-      </c>
-      <c r="I16" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="J16" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="K16" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="L16" s="6" t="str">
-        <f t="shared" si="1"/>
+      <c r="I16" s="31" t="s">
+        <v>2</v>
+      </c>
+      <c r="J16" s="31"/>
+      <c r="K16" s="31" t="s">
+        <v>81</v>
+      </c>
+      <c r="L16" s="31" t="s">
+        <v>154</v>
+      </c>
+      <c r="M16" s="31" t="s">
+        <v>110</v>
+      </c>
+      <c r="N16" s="31" t="str">
+        <f t="shared" si="0"/>
         <v>SW</v>
       </c>
-      <c r="M16" s="10" t="str">
-        <f t="shared" si="2"/>
-        <v>08_J_long_section_sorting</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A17" s="16"/>
-      <c r="B17" s="9" t="s">
-        <v>126</v>
-      </c>
+      <c r="O16" s="33" t="str">
+        <f>CONCATENATE(D16,$O$1,G16,$O$1,M16)</f>
+        <v>07_J_long_section_edit</v>
+      </c>
+      <c r="P16" s="16" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="B17" s="22"/>
       <c r="C17" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D17" s="5" t="str">
+      <c r="D17" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="E17" s="5" t="str">
         <f>VLOOKUP(C17,'자동화 업무 분류 코드'!$A$2:$B$8,2,FALSE)</f>
         <v>SW</v>
       </c>
-      <c r="E17" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="F17" s="5" t="str">
-        <f>VLOOKUP(E17,'자동화 업무 분류 코드'!$A$15:$B$23,2,FALSE)</f>
-        <v>S</v>
-      </c>
-      <c r="G17" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="H17" s="6" t="s">
-        <v>148</v>
-      </c>
-      <c r="I17" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="J17" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="K17" s="6" t="s">
-        <v>128</v>
-      </c>
-      <c r="L17" s="6" t="str">
-        <f t="shared" si="1"/>
+      <c r="F17" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="G17" s="5" t="str">
+        <f>VLOOKUP(F17,'자동화 업무 분류 코드'!$A$15:$B$23,2,FALSE)</f>
+        <v>J</v>
+      </c>
+      <c r="H17" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="I17" s="30" t="s">
+        <v>145</v>
+      </c>
+      <c r="J17" s="30" t="s">
+        <v>126</v>
+      </c>
+      <c r="K17" s="30" t="s">
+        <v>81</v>
+      </c>
+      <c r="L17" s="30" t="s">
+        <v>155</v>
+      </c>
+      <c r="M17" s="30" t="s">
+        <v>129</v>
+      </c>
+      <c r="N17" s="30" t="str">
+        <f t="shared" si="0"/>
         <v>SW</v>
       </c>
-      <c r="M17" s="10" t="str">
-        <f t="shared" si="2"/>
-        <v>09_S_box_auto_create</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A18" s="16"/>
-      <c r="B18" s="9" t="s">
-        <v>133</v>
-      </c>
+      <c r="O17" s="32" t="str">
+        <f>CONCATENATE(D17,$O$1,G17,$O$1,M17)</f>
+        <v>08_J_long_section_sorting</v>
+      </c>
+      <c r="P17" s="6" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="B18" s="22"/>
       <c r="C18" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D18" s="5" t="str">
+      <c r="D18" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="E18" s="5" t="str">
         <f>VLOOKUP(C18,'자동화 업무 분류 코드'!$A$2:$B$8,2,FALSE)</f>
         <v>SW</v>
       </c>
-      <c r="E18" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="F18" s="5" t="str">
-        <f>VLOOKUP(E18,'자동화 업무 분류 코드'!$A$15:$B$23,2,FALSE)</f>
+      <c r="F18" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="G18" s="5" t="str">
+        <f>VLOOKUP(F18,'자동화 업무 분류 코드'!$A$15:$B$23,2,FALSE)</f>
         <v>S</v>
       </c>
-      <c r="G18" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="H18" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="I18" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="J18" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="K18" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="L18" s="6" t="str">
-        <f t="shared" si="1"/>
+      <c r="H18" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="I18" s="30" t="s">
+        <v>146</v>
+      </c>
+      <c r="J18" s="30" t="s">
+        <v>122</v>
+      </c>
+      <c r="K18" s="30" t="s">
+        <v>81</v>
+      </c>
+      <c r="L18" s="30" t="s">
+        <v>156</v>
+      </c>
+      <c r="M18" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="N18" s="30" t="str">
+        <f t="shared" si="0"/>
         <v>SW</v>
       </c>
-      <c r="M18" s="10" t="str">
-        <f t="shared" si="2"/>
-        <v>10_S_keymap_auto_create</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A19" s="16"/>
-      <c r="B19" s="9" t="s">
-        <v>137</v>
-      </c>
-      <c r="C19" s="5" t="s">
+      <c r="O18" s="32" t="str">
+        <f>CONCATENATE(D18,$O$1,G18,$O$1,M18)</f>
+        <v>09_S_box_auto_create</v>
+      </c>
+      <c r="P18" s="6" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" s="17" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="22"/>
+      <c r="C19" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="D19" s="5" t="str">
+      <c r="D19" s="14" t="s">
+        <v>132</v>
+      </c>
+      <c r="E19" s="15" t="str">
         <f>VLOOKUP(C19,'자동화 업무 분류 코드'!$A$2:$B$8,2,FALSE)</f>
         <v>SW</v>
       </c>
-      <c r="E19" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="F19" s="5" t="str">
-        <f>VLOOKUP(E19,'자동화 업무 분류 코드'!$A$15:$B$23,2,FALSE)</f>
-        <v>R</v>
-      </c>
-      <c r="G19" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="H19" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="I19" s="6"/>
-      <c r="J19" s="6"/>
-      <c r="K19" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="L19" s="6" t="str">
-        <f t="shared" si="1"/>
+      <c r="F19" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="G19" s="15" t="str">
+        <f>VLOOKUP(F19,'자동화 업무 분류 코드'!$A$15:$B$23,2,FALSE)</f>
+        <v>S</v>
+      </c>
+      <c r="H19" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="I19" s="31" t="s">
+        <v>123</v>
+      </c>
+      <c r="J19" s="31" t="s">
+        <v>124</v>
+      </c>
+      <c r="K19" s="31" t="s">
+        <v>81</v>
+      </c>
+      <c r="L19" s="31" t="s">
+        <v>157</v>
+      </c>
+      <c r="M19" s="31" t="s">
+        <v>128</v>
+      </c>
+      <c r="N19" s="31" t="str">
+        <f t="shared" si="0"/>
         <v>SW</v>
       </c>
-      <c r="M19" s="10" t="str">
-        <f t="shared" si="2"/>
-        <v>11_R_pc_manhole_combination</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A20" s="17"/>
-      <c r="B20" s="9" t="s">
-        <v>140</v>
-      </c>
+      <c r="O19" s="33" t="str">
+        <f>CONCATENATE(D19,$O$1,G19,$O$1,M19)</f>
+        <v>10_S_keymap_auto_create</v>
+      </c>
+      <c r="P19" s="16" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="B20" s="22"/>
       <c r="C20" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D20" s="5" t="str">
+      <c r="D20" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="E20" s="5" t="str">
         <f>VLOOKUP(C20,'자동화 업무 분류 코드'!$A$2:$B$8,2,FALSE)</f>
         <v>SW</v>
       </c>
-      <c r="E20" s="5" t="s">
+      <c r="F20" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="G20" s="5" t="str">
+        <f>VLOOKUP(F20,'자동화 업무 분류 코드'!$A$15:$B$23,2,FALSE)</f>
+        <v>R</v>
+      </c>
+      <c r="H20" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="F20" s="5" t="str">
-        <f>VLOOKUP(E20,'자동화 업무 분류 코드'!$A$15:$B$23,2,FALSE)</f>
+      <c r="I20" s="30" t="s">
+        <v>135</v>
+      </c>
+      <c r="J20" s="30"/>
+      <c r="K20" s="30"/>
+      <c r="L20" s="30"/>
+      <c r="M20" s="30" t="s">
+        <v>137</v>
+      </c>
+      <c r="N20" s="30" t="str">
+        <f t="shared" si="0"/>
+        <v>SW</v>
+      </c>
+      <c r="O20" s="32" t="str">
+        <f>CONCATENATE(D20,$O$1,G20,$O$1,M20)</f>
+        <v>11_R_pc_manhole_combination</v>
+      </c>
+      <c r="P20" s="13"/>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="B21" s="23"/>
+      <c r="C21" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D21" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="E21" s="5" t="str">
+        <f>VLOOKUP(C21,'자동화 업무 분류 코드'!$A$2:$B$8,2,FALSE)</f>
+        <v>SW</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="G21" s="5" t="str">
+        <f>VLOOKUP(F21,'자동화 업무 분류 코드'!$A$15:$B$23,2,FALSE)</f>
         <v>R</v>
       </c>
-      <c r="G20" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="H20" s="6" t="s">
-        <v>149</v>
-      </c>
-      <c r="I20" s="6"/>
-      <c r="J20" s="6"/>
-      <c r="K20" s="6" t="s">
-        <v>139</v>
-      </c>
-      <c r="L20" s="6" t="str">
-        <f t="shared" si="1"/>
+      <c r="H21" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="I21" s="30" t="s">
+        <v>147</v>
+      </c>
+      <c r="J21" s="30"/>
+      <c r="K21" s="30"/>
+      <c r="L21" s="30"/>
+      <c r="M21" s="30" t="s">
+        <v>178</v>
+      </c>
+      <c r="N21" s="30" t="str">
+        <f t="shared" si="0"/>
         <v>SW</v>
       </c>
-      <c r="M20" s="10" t="str">
-        <f t="shared" si="2"/>
-        <v>12_R__manhole_inout_counter</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A21" s="13" t="s">
-        <v>89</v>
-      </c>
-      <c r="B21" s="9" t="s">
+      <c r="O21" s="32" t="str">
+        <f>CONCATENATE(D21,$O$1,G21,$O$1,M21)</f>
+        <v>12_R_manhole_inout_counter</v>
+      </c>
+      <c r="P21" s="13"/>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A22" s="26" t="s">
+        <v>167</v>
+      </c>
+      <c r="B22" s="18"/>
+      <c r="C22" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D22" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="E22" s="5" t="str">
+        <f>VLOOKUP(C22,'자동화 업무 분류 코드'!$A$2:$B$8,2,FALSE)</f>
+        <v>RW</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="G22" s="5" t="str">
+        <f>VLOOKUP(F22,'자동화 업무 분류 코드'!$A$15:$B$23,2,FALSE)</f>
+        <v>P</v>
+      </c>
+      <c r="H22" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="I22" s="30" t="s">
+        <v>161</v>
+      </c>
+      <c r="J22" s="30"/>
+      <c r="K22" s="30" t="s">
+        <v>81</v>
+      </c>
+      <c r="L22" s="30" t="s">
+        <v>175</v>
+      </c>
+      <c r="M22" s="30" t="s">
+        <v>179</v>
+      </c>
+      <c r="N22" s="30" t="str">
+        <f t="shared" si="0"/>
+        <v>RW</v>
+      </c>
+      <c r="O22" s="32" t="str">
+        <f>CONCATENATE(D22,$O$1,G22,$O$1,M22)</f>
+        <v>01_P_Auto_Tactile_block</v>
+      </c>
+      <c r="P22" s="13"/>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A23" s="26" t="s">
+        <v>167</v>
+      </c>
+      <c r="B23" s="18"/>
+      <c r="C23" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D23" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="E23" s="5" t="str">
+        <f>VLOOKUP(C23,'자동화 업무 분류 코드'!$A$2:$B$8,2,FALSE)</f>
+        <v>RW</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="G23" s="5" t="str">
+        <f>VLOOKUP(F23,'자동화 업무 분류 코드'!$A$15:$B$23,2,FALSE)</f>
+        <v>P</v>
+      </c>
+      <c r="H23" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="I23" s="30" t="s">
+        <v>162</v>
+      </c>
+      <c r="J23" s="30"/>
+      <c r="K23" s="30" t="s">
+        <v>81</v>
+      </c>
+      <c r="L23" s="30" t="s">
+        <v>176</v>
+      </c>
+      <c r="M23" s="30" t="s">
+        <v>180</v>
+      </c>
+      <c r="N23" s="30" t="str">
+        <f t="shared" si="0"/>
+        <v>RW</v>
+      </c>
+      <c r="O23" s="32" t="str">
+        <f>CONCATENATE(D23,$O$1,G23,$O$1,M23)</f>
+        <v>02_P_Auto_Guiding_block</v>
+      </c>
+      <c r="P23" s="13"/>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A24" s="26" t="s">
+        <v>167</v>
+      </c>
+      <c r="B24" s="18"/>
+      <c r="C24" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D24" s="9" t="s">
+        <v>182</v>
+      </c>
+      <c r="E24" s="5" t="str">
+        <f>VLOOKUP(C24,'자동화 업무 분류 코드'!$A$2:$B$8,2,FALSE)</f>
+        <v>RW</v>
+      </c>
+      <c r="F24" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="G24" s="5" t="str">
+        <f>VLOOKUP(F24,'자동화 업무 분류 코드'!$A$15:$B$23,2,FALSE)</f>
+        <v>P</v>
+      </c>
+      <c r="H24" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="I24" s="30" t="s">
+        <v>163</v>
+      </c>
+      <c r="J24" s="30"/>
+      <c r="K24" s="30" t="s">
+        <v>81</v>
+      </c>
+      <c r="L24" s="30" t="s">
+        <v>177</v>
+      </c>
+      <c r="M24" s="30" t="s">
+        <v>181</v>
+      </c>
+      <c r="N24" s="30" t="str">
+        <f t="shared" si="0"/>
+        <v>RW</v>
+      </c>
+      <c r="O24" s="32" t="str">
+        <f>CONCATENATE(D24,$O$1,G24,$O$1,M24)</f>
+        <v>03_P_Auto_Bollard_block</v>
+      </c>
+      <c r="P24" s="13"/>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A25" s="26" t="s">
+        <v>168</v>
+      </c>
+      <c r="B25" s="18"/>
+      <c r="C25" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D25" s="9" t="s">
+        <v>183</v>
+      </c>
+      <c r="E25" s="5" t="str">
+        <f>VLOOKUP(C25,'자동화 업무 분류 코드'!$A$2:$B$8,2,FALSE)</f>
+        <v>RW</v>
+      </c>
+      <c r="F25" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="G25" s="5" t="str">
+        <f>VLOOKUP(F25,'자동화 업무 분류 코드'!$A$15:$B$23,2,FALSE)</f>
+        <v>R</v>
+      </c>
+      <c r="H25" s="5"/>
+      <c r="I25" s="30" t="s">
+        <v>184</v>
+      </c>
+      <c r="J25" s="30"/>
+      <c r="K25" s="30" t="s">
+        <v>81</v>
+      </c>
+      <c r="L25" s="30"/>
+      <c r="M25" s="30"/>
+      <c r="N25" s="30" t="str">
+        <f t="shared" si="0"/>
+        <v>RW</v>
+      </c>
+      <c r="O25" s="32"/>
+      <c r="P25" s="13"/>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="B26" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D26" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="E26" s="5" t="str">
+        <f>VLOOKUP(C26,'자동화 업무 분류 코드'!$A$2:$B$8,2,FALSE)</f>
+        <v>ET</v>
+      </c>
+      <c r="F26" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G26" s="5" t="str">
+        <f>VLOOKUP(F26,'자동화 업무 분류 코드'!$A$15:$B$23,2,FALSE)</f>
+        <v>T</v>
+      </c>
+      <c r="H26" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="I26" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="J26" s="30" t="s">
+        <v>76</v>
+      </c>
+      <c r="K26" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="L26" s="30"/>
+      <c r="M26" s="30" t="s">
+        <v>111</v>
+      </c>
+      <c r="N26" s="30" t="s">
+        <v>140</v>
+      </c>
+      <c r="O26" s="32" t="str">
+        <f>CONCATENATE(D26,$O$1,G26,$O$1,M26)</f>
+        <v>01_T_photo_map_create</v>
+      </c>
+      <c r="P26" s="13"/>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="B27" s="20"/>
+      <c r="C27" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D27" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="C21" s="5" t="s">
+      <c r="E27" s="5" t="str">
+        <f>VLOOKUP(C27,'자동화 업무 분류 코드'!$A$2:$B$8,2,FALSE)</f>
+        <v>ET</v>
+      </c>
+      <c r="F27" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D21" s="5" t="str">
-        <f>VLOOKUP(C21,'자동화 업무 분류 코드'!$A$2:$B$8,2,FALSE)</f>
+      <c r="G27" s="5" t="str">
+        <f>VLOOKUP(F27,'자동화 업무 분류 코드'!$A$15:$B$23,2,FALSE)</f>
+        <v>T</v>
+      </c>
+      <c r="H27" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="I27" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="J27" s="30" t="s">
+        <v>77</v>
+      </c>
+      <c r="K27" s="30" t="s">
+        <v>81</v>
+      </c>
+      <c r="L27" s="30"/>
+      <c r="M27" s="30" t="s">
+        <v>112</v>
+      </c>
+      <c r="N27" s="30" t="str">
+        <f t="shared" si="0"/>
         <v>ET</v>
       </c>
-      <c r="E21" s="5" t="s">
+      <c r="O27" s="32" t="str">
+        <f>CONCATENATE(D27,$O$1,G27,$O$1,M27)</f>
+        <v>02_T_cad_overlay_apply</v>
+      </c>
+      <c r="P27" s="13"/>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="B28" s="20"/>
+      <c r="C28" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="F21" s="5" t="str">
-        <f>VLOOKUP(E21,'자동화 업무 분류 코드'!$A$15:$B$23,2,FALSE)</f>
+      <c r="D28" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="E28" s="5" t="str">
+        <f>VLOOKUP(C28,'자동화 업무 분류 코드'!$A$2:$B$8,2,FALSE)</f>
+        <v>ET</v>
+      </c>
+      <c r="F28" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G28" s="5" t="str">
+        <f>VLOOKUP(F28,'자동화 업무 분류 코드'!$A$15:$B$23,2,FALSE)</f>
         <v>T</v>
       </c>
-      <c r="G21" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="H21" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="I21" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="J21" s="6" t="s">
+      <c r="H28" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="I28" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="J28" s="30" t="s">
+        <v>78</v>
+      </c>
+      <c r="K28" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="K21" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="L21" s="6" t="s">
-        <v>142</v>
-      </c>
-      <c r="M21" s="10" t="str">
-        <f t="shared" si="2"/>
-        <v>01_T_photo_map_create</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A22" s="14"/>
-      <c r="B22" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="C22" s="5" t="s">
+      <c r="L28" s="30"/>
+      <c r="M28" s="30" t="s">
+        <v>113</v>
+      </c>
+      <c r="N28" s="30" t="str">
+        <f t="shared" si="0"/>
+        <v>ET</v>
+      </c>
+      <c r="O28" s="32" t="str">
+        <f>CONCATENATE(D28,$O$1,G28,$O$1,M28)</f>
+        <v>03_T_web_publish</v>
+      </c>
+      <c r="P28" s="13"/>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="B29" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D22" s="5" t="str">
-        <f>VLOOKUP(C22,'자동화 업무 분류 코드'!$A$2:$B$8,2,FALSE)</f>
+      <c r="C29" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D29" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="E29" s="5" t="str">
+        <f>VLOOKUP(C29,'자동화 업무 분류 코드'!$A$2:$B$8,2,FALSE)</f>
         <v>ET</v>
       </c>
-      <c r="E22" s="5" t="s">
+      <c r="F29" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="F22" s="5" t="str">
-        <f>VLOOKUP(E22,'자동화 업무 분류 코드'!$A$15:$B$23,2,FALSE)</f>
+      <c r="G29" s="5" t="str">
+        <f>VLOOKUP(F29,'자동화 업무 분류 코드'!$A$15:$B$23,2,FALSE)</f>
         <v>T</v>
       </c>
-      <c r="G22" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="H22" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="I22" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="J22" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="K22" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="L22" s="6" t="str">
-        <f t="shared" si="1"/>
+      <c r="H29" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="I29" s="30" t="s">
+        <v>79</v>
+      </c>
+      <c r="J29" s="30" t="s">
+        <v>80</v>
+      </c>
+      <c r="K29" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="L29" s="30"/>
+      <c r="M29" s="30" t="s">
+        <v>114</v>
+      </c>
+      <c r="N29" s="30" t="str">
+        <f t="shared" si="0"/>
         <v>ET</v>
       </c>
-      <c r="M22" s="10" t="str">
-        <f t="shared" si="2"/>
-        <v>02_T_cad_overlay_apply</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A23" s="14"/>
-      <c r="B23" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="C23" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D23" s="5" t="str">
-        <f>VLOOKUP(C23,'자동화 업무 분류 코드'!$A$2:$B$8,2,FALSE)</f>
-        <v>ET</v>
-      </c>
-      <c r="E23" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F23" s="5" t="str">
-        <f>VLOOKUP(E23,'자동화 업무 분류 코드'!$A$15:$B$23,2,FALSE)</f>
-        <v>T</v>
-      </c>
-      <c r="G23" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="H23" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="I23" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="J23" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="K23" s="6" t="s">
-        <v>114</v>
-      </c>
-      <c r="L23" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>ET</v>
-      </c>
-      <c r="M23" s="10" t="str">
-        <f t="shared" si="2"/>
-        <v>03_T_web_publish</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A24" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B24" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="C24" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D24" s="5" t="str">
-        <f>VLOOKUP(C24,'자동화 업무 분류 코드'!$A$2:$B$8,2,FALSE)</f>
-        <v>ET</v>
-      </c>
-      <c r="E24" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F24" s="5" t="str">
-        <f>VLOOKUP(E24,'자동화 업무 분류 코드'!$A$15:$B$23,2,FALSE)</f>
-        <v>T</v>
-      </c>
-      <c r="G24" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="H24" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="I24" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="J24" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="K24" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="L24" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>ET</v>
-      </c>
-      <c r="M24" s="10" t="str">
-        <f t="shared" si="2"/>
+      <c r="O29" s="32" t="str">
+        <f>CONCATENATE(D29,$O$1,G29,$O$1,M29)</f>
         <v>01_T_prom_land_registry_auto</v>
       </c>
+      <c r="P29" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="A3:A8"/>
-    <mergeCell ref="A21:A23"/>
-    <mergeCell ref="A9:A20"/>
+    <mergeCell ref="B4:B9"/>
+    <mergeCell ref="B26:B28"/>
+    <mergeCell ref="B10:B21"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="61" orientation="landscape" r:id="rId1"/>
   <colBreaks count="1" manualBreakCount="1">
-    <brk id="13" max="1048575" man="1"/>
+    <brk id="16" max="1048575" man="1"/>
   </colBreaks>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DB043FE-350C-416F-AE1D-FDF768993077}">
+  <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2212,7 +2743,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>27</v>
@@ -2234,24 +2765,24 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B6" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>31</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B7" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" s="3" t="s">
         <v>33</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
@@ -2259,109 +2790,109 @@
         <v>14</v>
       </c>
       <c r="B8" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8" s="3" t="s">
         <v>35</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>20</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B15" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C15" s="3" t="s">
         <v>42</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B16" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C16" s="3" t="s">
         <v>44</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B17" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C17" s="3" t="s">
         <v>46</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C18" s="3" t="s">
         <v>49</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C19" s="3" t="s">
         <v>52</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C20" s="3" t="s">
         <v>55</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B21" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C21" s="3" t="s">
         <v>57</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B22" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C22" s="3" t="s">
         <v>59</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
@@ -2369,7 +2900,7 @@
         <v>15</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C23" s="3"/>
     </row>
